--- a/medicine/Mort/Peine_de_mort_en_Indonésie/Peine_de_mort_en_Indonésie.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Indonésie/Peine_de_mort_en_Indonésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Indon%C3%A9sie</t>
+          <t>Peine_de_mort_en_Indonésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort est une sanction légale applicable et appliquée en Indonésie.
 Bien qu'elle soit encourue pour meurtre, elle n'est généralement appliquée dans ce cas que s'il y a eu préméditation, actes de barbarie ou plusieurs itérations, la majorité des sentences de mort rendues et exécutées (uniquement par fusillade) dans le pays l'étant pour trafic de drogues.
-En décembre 2022, plus de 452 personnes se trouvaient dans le couloir de la mort en Indonésie[1].
+En décembre 2022, plus de 452 personnes se trouvaient dans le couloir de la mort en Indonésie.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Indon%C3%A9sie</t>
+          <t>Peine_de_mort_en_Indonésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Procédure judiciaire
-Un panel de trois juges examine en premier ressort une éventuelle condamnation à la peine de mort. L'Indonésie est un pays dont les lois pénales autorisent les condamnés à faire appel (mais leur peine peut aussi être aggravée dans ce cas), puis à se pourvoir devant la Cour suprême.
-Couloir de la mort et exécutions
-Les prisons où sont incarcérés les condamnés à la peine capitale sont sujettes à des mesures drastiques de sécurité lorsqu'une exécution est prévue. Le condamné est averti de l'exécution de la sentence 72 heures à l'avance, sachant que celle-ci a lieu à minuit. Il a le choix entre la position assise et debout et entre avoir les yeux bandés ou la tête nue.
-Comme au Japon, les condamnés indonésiens à exécuter sont choisis selon la gravité de leur crime plutôt que selon l'ancienneté de leur condamnation. Par exemple, Marinus Riwu et ses complices ont été condamnés en 2001 et exécutés dès 2006, alors que Sumiarsih et son fils n'ont été exécutés qu'en 2008, après vingt ans dans le couloir de la mort. Le gouvernement indonésien, très actif pour éviter la peine de mort à ses ressortissants à l'étranger[réf. nécessaire], ne suit pas les mêmes orientations sur son territoire.
+          <t>Procédure judiciaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un panel de trois juges examine en premier ressort une éventuelle condamnation à la peine de mort. L'Indonésie est un pays dont les lois pénales autorisent les condamnés à faire appel (mais leur peine peut aussi être aggravée dans ce cas), puis à se pourvoir devant la Cour suprême.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Indon%C3%A9sie</t>
+          <t>Peine_de_mort_en_Indonésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Exécutions depuis 2001</t>
+          <t>Procédure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>Couloir de la mort et exécutions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prisons où sont incarcérés les condamnés à la peine capitale sont sujettes à des mesures drastiques de sécurité lorsqu'une exécution est prévue. Le condamné est averti de l'exécution de la sentence 72 heures à l'avance, sachant que celle-ci a lieu à minuit. Il a le choix entre la position assise et debout et entre avoir les yeux bandés ou la tête nue.
+Comme au Japon, les condamnés indonésiens à exécuter sont choisis selon la gravité de leur crime plutôt que selon l'ancienneté de leur condamnation. Par exemple, Marinus Riwu et ses complices ont été condamnés en 2001 et exécutés dès 2006, alors que Sumiarsih et son fils n'ont été exécutés qu'en 2008, après vingt ans dans le couloir de la mort. Le gouvernement indonésien, très actif pour éviter la peine de mort à ses ressortissants à l'étranger[réf. nécessaire], ne suit pas les mêmes orientations sur son territoire.
 </t>
         </is>
       </c>
@@ -561,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Indon%C3%A9sie</t>
+          <t>Peine_de_mort_en_Indonésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +597,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Exécutions depuis 2001</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peine_de_mort_en_Indonésie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peine_de_mort_en_Indon%C3%A9sie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Cas marquants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'attentat de Bali est l'attaque terroriste la plus meurtrière qu'ait connue l'Indonésie. Elle s'est produite le 12 octobre 2002 à Kuta sur l'île de Bali, faisant 202 morts et 209 blessés. La plupart des victimes étaient des touristes étrangers, principalement australiens. Trois personnes ont été condamnées à mort pour ce crime et s'apprêtaient à être exécutées avant le 1er septembre 2008 (date du début du Ramadan). Mais elles ont obtenu un report en contestant la méthode d'exécution par fusillade, qu'ils considèrent comme de la torture et demandant à être exécutés par injection létale ou par décapitation. Le 21 octobre 2008, la Cour a finalement ouvert la voie à l'exécution des terroristes arguant « qu'aucune méthode d'exécution n'est indolore » et que « la souffrance est une conséquence logique du processus de mort »[réf. nécessaire]. La date de l'exécution a été tenue secrète pour raison de sécurité. Les trois condamnés ont finalement été exécutés le 9 novembre 2008 à minuit (heure indonésienne)[9].
-On notera aussi la présence de deux Français dans les couloirs de la mort indonésiens : Serge Atlaoui (l'un des seuls français condamnés à mort dans le monde, avec un Louisianais qui a obtenu la nationalité française alors qu'il était déjà condamné à mort). Il entretenait des machines à ecstasy[10].
-Félix Dorfin a également été condamné à mort le 20 mai 2019[11]. Il avait été interpellé fin septembre à l'aeroport de Lombok en possession de près de quatre kilos de cocaïne, d'ecstasy et d'amphétamines dissimulés dans une valise à double fond.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'attentat de Bali est l'attaque terroriste la plus meurtrière qu'ait connue l'Indonésie. Elle s'est produite le 12 octobre 2002 à Kuta sur l'île de Bali, faisant 202 morts et 209 blessés. La plupart des victimes étaient des touristes étrangers, principalement australiens. Trois personnes ont été condamnées à mort pour ce crime et s'apprêtaient à être exécutées avant le 1er septembre 2008 (date du début du Ramadan). Mais elles ont obtenu un report en contestant la méthode d'exécution par fusillade, qu'ils considèrent comme de la torture et demandant à être exécutés par injection létale ou par décapitation. Le 21 octobre 2008, la Cour a finalement ouvert la voie à l'exécution des terroristes arguant « qu'aucune méthode d'exécution n'est indolore » et que « la souffrance est une conséquence logique du processus de mort »[réf. nécessaire]. La date de l'exécution a été tenue secrète pour raison de sécurité. Les trois condamnés ont finalement été exécutés le 9 novembre 2008 à minuit (heure indonésienne).
+On notera aussi la présence de deux Français dans les couloirs de la mort indonésiens : Serge Atlaoui (l'un des seuls français condamnés à mort dans le monde, avec un Louisianais qui a obtenu la nationalité française alors qu'il était déjà condamné à mort). Il entretenait des machines à ecstasy.
+Félix Dorfin a également été condamné à mort le 20 mai 2019. Il avait été interpellé fin septembre à l'aeroport de Lombok en possession de près de quatre kilos de cocaïne, d'ecstasy et d'amphétamines dissimulés dans une valise à double fond.
 La Cour suprême d'Indonésie avait également été amenée à se prononcer sur la peine de mort pour les trafiquants de drogue, qu'elle valida par cinq voix contre quatre[réf. nécessaire].
 En avril 2009, Verry Idham Henyansyah dit Ryan, un Indonésien qui a confessé onze meurtres et s'apprête à sortir un disque de chansons écrites en prison, a été condamné à la peine de mort.
 </t>
